--- a/xlsx/instrument_price_our_code_13.04.2020.xlsx
+++ b/xlsx/instrument_price_our_code_13.04.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="313">
   <si>
     <t>2930</t>
   </si>
@@ -47,6 +47,906 @@
   </si>
   <si>
     <t>1572</t>
+  </si>
+  <si>
+    <t>1679</t>
+  </si>
+  <si>
+    <t>1827</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>2054</t>
+  </si>
+  <si>
+    <t>2130</t>
+  </si>
+  <si>
+    <t>2190</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2251</t>
+  </si>
+  <si>
+    <t>2390</t>
+  </si>
+  <si>
+    <t>2510</t>
+  </si>
+  <si>
+    <t>2558</t>
+  </si>
+  <si>
+    <t>2620</t>
+  </si>
+  <si>
+    <t>2640</t>
+  </si>
+  <si>
+    <t>2739</t>
+  </si>
+  <si>
+    <t>2840</t>
+  </si>
+  <si>
+    <t>2850</t>
+  </si>
+  <si>
+    <t>2990</t>
+  </si>
+  <si>
+    <t>3060</t>
+  </si>
+  <si>
+    <t>3077</t>
+  </si>
+  <si>
+    <t>3135</t>
+  </si>
+  <si>
+    <t>3329</t>
+  </si>
+  <si>
+    <t>3339</t>
+  </si>
+  <si>
+    <t>3410</t>
+  </si>
+  <si>
+    <t>3432</t>
+  </si>
+  <si>
+    <t>3490</t>
+  </si>
+  <si>
+    <t>3550</t>
+  </si>
+  <si>
+    <t>3590</t>
+  </si>
+  <si>
+    <t>3790</t>
+  </si>
+  <si>
+    <t>3870</t>
+  </si>
+  <si>
+    <t>4120</t>
+  </si>
+  <si>
+    <t>4130</t>
+  </si>
+  <si>
+    <t>4190</t>
+  </si>
+  <si>
+    <t>4199</t>
+  </si>
+  <si>
+    <t>4299</t>
+  </si>
+  <si>
+    <t>4360</t>
+  </si>
+  <si>
+    <t>4390</t>
+  </si>
+  <si>
+    <t>4490</t>
+  </si>
+  <si>
+    <t>4690</t>
+  </si>
+  <si>
+    <t>4716</t>
+  </si>
+  <si>
+    <t>4799</t>
+  </si>
+  <si>
+    <t>4990</t>
+  </si>
+  <si>
+    <t>5106</t>
+  </si>
+  <si>
+    <t>5190</t>
+  </si>
+  <si>
+    <t>5250</t>
+  </si>
+  <si>
+    <t>5290</t>
+  </si>
+  <si>
+    <t>5401</t>
+  </si>
+  <si>
+    <t>5490</t>
+  </si>
+  <si>
+    <t>5790</t>
+  </si>
+  <si>
+    <t>5804</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>6036</t>
+  </si>
+  <si>
+    <t>6600</t>
+  </si>
+  <si>
+    <t>7524</t>
+  </si>
+  <si>
+    <t>7617</t>
+  </si>
+  <si>
+    <t>8361</t>
+  </si>
+  <si>
+    <t>8790</t>
+  </si>
+  <si>
+    <t>9690</t>
+  </si>
+  <si>
+    <t>9800</t>
+  </si>
+  <si>
+    <t>9942</t>
+  </si>
+  <si>
+    <t>10080</t>
+  </si>
+  <si>
+    <t>10686</t>
+  </si>
+  <si>
+    <t>10965</t>
+  </si>
+  <si>
+    <t>11790</t>
+  </si>
+  <si>
+    <t>13080</t>
+  </si>
+  <si>
+    <t>15950</t>
+  </si>
+  <si>
+    <t>16833</t>
+  </si>
+  <si>
+    <t>18500</t>
+  </si>
+  <si>
+    <t>4827</t>
+  </si>
+  <si>
+    <t>5890</t>
+  </si>
+  <si>
+    <t>6129</t>
+  </si>
+  <si>
+    <t>8175</t>
+  </si>
+  <si>
+    <t>8370</t>
+  </si>
+  <si>
+    <t>8440</t>
+  </si>
+  <si>
+    <t>8990</t>
+  </si>
+  <si>
+    <t>9756</t>
+  </si>
+  <si>
+    <t>13699</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>1628</t>
+  </si>
+  <si>
+    <t>1178</t>
+  </si>
+  <si>
+    <t>1190</t>
+  </si>
+  <si>
+    <t>1639</t>
+  </si>
+  <si>
+    <t>1690</t>
+  </si>
+  <si>
+    <t>1944</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>2056</t>
+  </si>
+  <si>
+    <t>2299</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2464</t>
+  </si>
+  <si>
+    <t>3153</t>
+  </si>
+  <si>
+    <t>3168</t>
+  </si>
+  <si>
+    <t>3311</t>
+  </si>
+  <si>
+    <t>3390</t>
+  </si>
+  <si>
+    <t>3559</t>
+  </si>
+  <si>
+    <t>3780</t>
+  </si>
+  <si>
+    <t>3786</t>
+  </si>
+  <si>
+    <t>4139</t>
+  </si>
+  <si>
+    <t>4197</t>
+  </si>
+  <si>
+    <t>4455</t>
+  </si>
+  <si>
+    <t>5134</t>
+  </si>
+  <si>
+    <t>6079</t>
+  </si>
+  <si>
+    <t>7905</t>
+  </si>
+  <si>
+    <t>8082</t>
+  </si>
+  <si>
+    <t>9190</t>
+  </si>
+  <si>
+    <t>9400</t>
+  </si>
+  <si>
+    <t>10100</t>
+  </si>
+  <si>
+    <t>11532</t>
+  </si>
+  <si>
+    <t>3525</t>
+  </si>
+  <si>
+    <t>4083</t>
+  </si>
+  <si>
+    <t>4341</t>
+  </si>
+  <si>
+    <t>4678</t>
+  </si>
+  <si>
+    <t>5059</t>
+  </si>
+  <si>
+    <t>5139</t>
+  </si>
+  <si>
+    <t>5571</t>
+  </si>
+  <si>
+    <t>5999</t>
+  </si>
+  <si>
+    <t>6590</t>
+  </si>
+  <si>
+    <t>6687</t>
+  </si>
+  <si>
+    <t>6755</t>
+  </si>
+  <si>
+    <t>7487</t>
+  </si>
+  <si>
+    <t>10919</t>
+  </si>
+  <si>
+    <t>11190</t>
+  </si>
+  <si>
+    <t>12546</t>
+  </si>
+  <si>
+    <t>15390</t>
+  </si>
+  <si>
+    <t>16000</t>
+  </si>
+  <si>
+    <t>19080</t>
+  </si>
+  <si>
+    <t>20741</t>
+  </si>
+  <si>
+    <t>23590</t>
+  </si>
+  <si>
+    <t>24490</t>
+  </si>
+  <si>
+    <t>25300</t>
+  </si>
+  <si>
+    <t>25830</t>
+  </si>
+  <si>
+    <t>4599</t>
+  </si>
+  <si>
+    <t>8890</t>
+  </si>
+  <si>
+    <t>11151</t>
+  </si>
+  <si>
+    <t>11499</t>
+  </si>
+  <si>
+    <t>15590</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>5721</t>
+  </si>
+  <si>
+    <t>6529</t>
+  </si>
+  <si>
+    <t>7490</t>
+  </si>
+  <si>
+    <t>18935</t>
+  </si>
+  <si>
+    <t>19205</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1927</t>
+  </si>
+  <si>
+    <t>2529</t>
+  </si>
+  <si>
+    <t>3111</t>
+  </si>
+  <si>
+    <t>3357</t>
+  </si>
+  <si>
+    <t>3903</t>
+  </si>
+  <si>
+    <t>6073</t>
+  </si>
+  <si>
+    <t>9012</t>
+  </si>
+  <si>
+    <t>1535</t>
+  </si>
+  <si>
+    <t>1590</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>2186</t>
+  </si>
+  <si>
+    <t>2273</t>
+  </si>
+  <si>
+    <t>2316</t>
+  </si>
+  <si>
+    <t>2465</t>
+  </si>
+  <si>
+    <t>2616</t>
+  </si>
+  <si>
+    <t>2690</t>
+  </si>
+  <si>
+    <t>2730</t>
+  </si>
+  <si>
+    <t>2969</t>
+  </si>
+  <si>
+    <t>2980</t>
+  </si>
+  <si>
+    <t>2984</t>
+  </si>
+  <si>
+    <t>3120</t>
+  </si>
+  <si>
+    <t>3190</t>
+  </si>
+  <si>
+    <t>3767</t>
+  </si>
+  <si>
+    <t>3799</t>
+  </si>
+  <si>
+    <t>3840</t>
+  </si>
+  <si>
+    <t>3990</t>
+  </si>
+  <si>
+    <t>4019</t>
+  </si>
+  <si>
+    <t>4191</t>
+  </si>
+  <si>
+    <t>4290</t>
+  </si>
+  <si>
+    <t>4590</t>
+  </si>
+  <si>
+    <t>4818</t>
+  </si>
+  <si>
+    <t>4987</t>
+  </si>
+  <si>
+    <t>5199</t>
+  </si>
+  <si>
+    <t>5236</t>
+  </si>
+  <si>
+    <t>5766</t>
+  </si>
+  <si>
+    <t>6199</t>
+  </si>
+  <si>
+    <t>6999</t>
+  </si>
+  <si>
+    <t>7689</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>8761</t>
+  </si>
+  <si>
+    <t>11890</t>
+  </si>
+  <si>
+    <t>12291</t>
+  </si>
+  <si>
+    <t>16099</t>
+  </si>
+  <si>
+    <t>18900</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>8742</t>
+  </si>
+  <si>
+    <t>8900</t>
+  </si>
+  <si>
+    <t>10899</t>
+  </si>
+  <si>
+    <t>11960</t>
+  </si>
+  <si>
+    <t>17990</t>
+  </si>
+  <si>
+    <t>31500</t>
+  </si>
+  <si>
+    <t>9858</t>
+  </si>
+  <si>
+    <t>9979</t>
+  </si>
+  <si>
+    <t>11099</t>
+  </si>
+  <si>
+    <t>12453</t>
+  </si>
+  <si>
+    <t>19700</t>
+  </si>
+  <si>
+    <t>25599</t>
+  </si>
+  <si>
+    <t>4149</t>
+  </si>
+  <si>
+    <t>5002</t>
+  </si>
+  <si>
+    <t>5910</t>
+  </si>
+  <si>
+    <t>6990</t>
+  </si>
+  <si>
+    <t>10590</t>
+  </si>
+  <si>
+    <t>13100</t>
+  </si>
+  <si>
+    <t>16580</t>
+  </si>
+  <si>
+    <t>44826</t>
+  </si>
+  <si>
+    <t>9300</t>
+  </si>
+  <si>
+    <t>12100</t>
+  </si>
+  <si>
+    <t>13399</t>
+  </si>
+  <si>
+    <t>17290</t>
+  </si>
+  <si>
+    <t>17300</t>
+  </si>
+  <si>
+    <t>25950</t>
+  </si>
+  <si>
+    <t>2650</t>
+  </si>
+  <si>
+    <t>2789</t>
+  </si>
+  <si>
+    <t>3949</t>
+  </si>
+  <si>
+    <t>6483</t>
+  </si>
+  <si>
+    <t>8290</t>
+  </si>
+  <si>
+    <t>9747</t>
+  </si>
+  <si>
+    <t>13099</t>
+  </si>
+  <si>
+    <t>15990</t>
+  </si>
+  <si>
+    <t>33100</t>
+  </si>
+  <si>
+    <t>12336</t>
+  </si>
+  <si>
+    <t>14144</t>
+  </si>
+  <si>
+    <t>16638</t>
+  </si>
+  <si>
+    <t>16747</t>
+  </si>
+  <si>
+    <t>17700</t>
+  </si>
+  <si>
+    <t>21381</t>
+  </si>
+  <si>
+    <t>22680</t>
+  </si>
+  <si>
+    <t>26829</t>
+  </si>
+  <si>
+    <t>27490</t>
+  </si>
+  <si>
+    <t>28199</t>
+  </si>
+  <si>
+    <t>29790</t>
+  </si>
+  <si>
+    <t>30225</t>
+  </si>
+  <si>
+    <t>42600</t>
+  </si>
+  <si>
+    <t>43701</t>
+  </si>
+  <si>
+    <t>46184</t>
+  </si>
+  <si>
+    <t>53100</t>
+  </si>
+  <si>
+    <t>63000</t>
+  </si>
+  <si>
+    <t>79887</t>
+  </si>
+  <si>
+    <t>10621</t>
+  </si>
+  <si>
+    <t>15476</t>
+  </si>
+  <si>
+    <t>18990</t>
+  </si>
+  <si>
+    <t>27990</t>
+  </si>
+  <si>
+    <t>29990</t>
+  </si>
+  <si>
+    <t>4650</t>
+  </si>
+  <si>
+    <t>4657</t>
+  </si>
+  <si>
+    <t>7980</t>
+  </si>
+  <si>
+    <t>8933</t>
+  </si>
+  <si>
+    <t>21830</t>
+  </si>
+  <si>
+    <t>21990</t>
+  </si>
+  <si>
+    <t>7896</t>
+  </si>
+  <si>
+    <t>10240</t>
+  </si>
+  <si>
+    <t>23990</t>
+  </si>
+  <si>
+    <t>29100</t>
+  </si>
+  <si>
+    <t>37191</t>
+  </si>
+  <si>
+    <t>37700</t>
+  </si>
+  <si>
+    <t>46600</t>
+  </si>
+  <si>
+    <t>47421</t>
+  </si>
+  <si>
+    <t>50769</t>
+  </si>
+  <si>
+    <t>60900</t>
+  </si>
+  <si>
+    <t>9790</t>
+  </si>
+  <si>
+    <t>11299</t>
+  </si>
+  <si>
+    <t>11699</t>
+  </si>
+  <si>
+    <t>12620</t>
+  </si>
+  <si>
+    <t>14890</t>
+  </si>
+  <si>
+    <t>22999</t>
+  </si>
+  <si>
+    <t>23290</t>
+  </si>
+  <si>
+    <t>27999</t>
+  </si>
+  <si>
+    <t>3567</t>
+  </si>
+  <si>
+    <t>3897</t>
+  </si>
+  <si>
+    <t>4399</t>
+  </si>
+  <si>
+    <t>4715</t>
+  </si>
+  <si>
+    <t>5097</t>
+  </si>
+  <si>
+    <t>5129</t>
+  </si>
+  <si>
+    <t>5146</t>
+  </si>
+  <si>
+    <t>5175</t>
+  </si>
+  <si>
+    <t>5202</t>
+  </si>
+  <si>
+    <t>5208</t>
+  </si>
+  <si>
+    <t>5930</t>
+  </si>
+  <si>
+    <t>5943</t>
+  </si>
+  <si>
+    <t>6350</t>
+  </si>
+  <si>
+    <t>6580</t>
+  </si>
+  <si>
+    <t>6612</t>
+  </si>
+  <si>
+    <t>7230</t>
+  </si>
+  <si>
+    <t>7590</t>
+  </si>
+  <si>
+    <t>7790</t>
+  </si>
+  <si>
+    <t>7990</t>
+  </si>
+  <si>
+    <t>7998</t>
+  </si>
+  <si>
+    <t>8010</t>
+  </si>
+  <si>
+    <t>8330</t>
+  </si>
+  <si>
+    <t>8408</t>
+  </si>
+  <si>
+    <t>8463</t>
+  </si>
+  <si>
+    <t>8740</t>
+  </si>
+  <si>
+    <t>9468</t>
+  </si>
+  <si>
+    <t>9700</t>
+  </si>
+  <si>
+    <t>11290</t>
+  </si>
+  <si>
+    <t>11700</t>
+  </si>
+  <si>
+    <t>11750</t>
+  </si>
+  <si>
+    <t>11830</t>
+  </si>
+  <si>
+    <t>12990</t>
   </si>
   <si>
     <t>code</t>
@@ -413,7 +1313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,10 +1325,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>311</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -517,6 +1417,2774 @@
       </c>
       <c r="B12" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>8999</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>8889</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
+        <v>8887</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
+        <v>886</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>8886</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>8885</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>8884</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>8883</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>8882</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>8881</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>8880</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>8879</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>8878</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>8877</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>8876</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
+        <v>8875</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
+        <v>8874</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
+        <v>8873</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
+        <v>8872</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
+        <v>8871</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
+        <v>8870</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
+        <v>8869</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
+        <v>8868</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
+        <v>8867</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
+        <v>8866</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
+        <v>8865</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
+        <v>8864</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
+        <v>8863</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
+        <v>8862</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
+        <v>8861</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
+        <v>8860</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
+        <v>8859</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
+        <v>8858</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
+        <v>8857</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
+        <v>8856</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
+        <v>8855</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
+        <v>8854</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
+        <v>8853</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
+        <v>8852</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
+        <v>8851</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
+        <v>8850</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
+        <v>8849</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
+        <v>8848</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
+        <v>8847</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
+        <v>8846</v>
+      </c>
+      <c r="B57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
+        <v>8845</v>
+      </c>
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
+        <v>8844</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
+        <v>8843</v>
+      </c>
+      <c r="B60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
+        <v>8842</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
+        <v>8841</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
+        <v>8840</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
+        <v>8839</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
+        <v>8838</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
+        <v>8837</v>
+      </c>
+      <c r="B66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
+        <v>8836</v>
+      </c>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
+        <v>8835</v>
+      </c>
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
+        <v>8834</v>
+      </c>
+      <c r="B69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
+        <v>8833</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
+        <v>8832</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
+        <v>8831</v>
+      </c>
+      <c r="B72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
+        <v>8830</v>
+      </c>
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
+        <v>8829</v>
+      </c>
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
+        <v>8828</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
+        <v>8827</v>
+      </c>
+      <c r="B76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
+        <v>8826</v>
+      </c>
+      <c r="B77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
+        <v>8825</v>
+      </c>
+      <c r="B78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
+        <v>8824</v>
+      </c>
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
+        <v>8823</v>
+      </c>
+      <c r="B80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
+        <v>8822</v>
+      </c>
+      <c r="B81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
+        <v>8821</v>
+      </c>
+      <c r="B82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
+        <v>8820</v>
+      </c>
+      <c r="B83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
+        <v>8819</v>
+      </c>
+      <c r="B84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2">
+        <v>8818</v>
+      </c>
+      <c r="B85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
+        <v>8817</v>
+      </c>
+      <c r="B86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2">
+        <v>8816</v>
+      </c>
+      <c r="B87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2">
+        <v>8815</v>
+      </c>
+      <c r="B88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2">
+        <v>8814</v>
+      </c>
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
+        <v>8813</v>
+      </c>
+      <c r="B90" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
+        <v>8812</v>
+      </c>
+      <c r="B91" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
+        <v>8811</v>
+      </c>
+      <c r="B92" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
+        <v>8810</v>
+      </c>
+      <c r="B93" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
+        <v>8809</v>
+      </c>
+      <c r="B94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
+        <v>8808</v>
+      </c>
+      <c r="B95" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
+        <v>8807</v>
+      </c>
+      <c r="B96" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
+        <v>8806</v>
+      </c>
+      <c r="B97" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
+        <v>8805</v>
+      </c>
+      <c r="B98" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
+        <v>8804</v>
+      </c>
+      <c r="B99" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
+        <v>8803</v>
+      </c>
+      <c r="B100" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
+        <v>8802</v>
+      </c>
+      <c r="B101" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
+        <v>8801</v>
+      </c>
+      <c r="B102" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
+        <v>8800</v>
+      </c>
+      <c r="B103" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
+        <v>8799</v>
+      </c>
+      <c r="B104" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
+        <v>8798</v>
+      </c>
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
+        <v>8797</v>
+      </c>
+      <c r="B106" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
+        <v>8796</v>
+      </c>
+      <c r="B107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
+        <v>8795</v>
+      </c>
+      <c r="B108" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
+        <v>8794</v>
+      </c>
+      <c r="B109" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
+        <v>8793</v>
+      </c>
+      <c r="B110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
+        <v>8792</v>
+      </c>
+      <c r="B111" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
+        <v>8791</v>
+      </c>
+      <c r="B112" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
+        <v>8790</v>
+      </c>
+      <c r="B113" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
+        <v>8789</v>
+      </c>
+      <c r="B114" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
+        <v>8788</v>
+      </c>
+      <c r="B115" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
+        <v>8787</v>
+      </c>
+      <c r="B116" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
+        <v>8786</v>
+      </c>
+      <c r="B117" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
+        <v>8785</v>
+      </c>
+      <c r="B118" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
+        <v>8784</v>
+      </c>
+      <c r="B119" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
+        <v>8783</v>
+      </c>
+      <c r="B120" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
+        <v>8782</v>
+      </c>
+      <c r="B121" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
+        <v>8781</v>
+      </c>
+      <c r="B122" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
+        <v>8780</v>
+      </c>
+      <c r="B123" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
+        <v>8779</v>
+      </c>
+      <c r="B124" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
+        <v>8778</v>
+      </c>
+      <c r="B125" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
+        <v>8777</v>
+      </c>
+      <c r="B126" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
+        <v>8776</v>
+      </c>
+      <c r="B127" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
+        <v>8775</v>
+      </c>
+      <c r="B128" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
+        <v>8774</v>
+      </c>
+      <c r="B129" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
+        <v>8773</v>
+      </c>
+      <c r="B130" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
+        <v>8772</v>
+      </c>
+      <c r="B131" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
+        <v>8771</v>
+      </c>
+      <c r="B132" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
+        <v>8770</v>
+      </c>
+      <c r="B133" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
+        <v>8769</v>
+      </c>
+      <c r="B134" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
+        <v>8768</v>
+      </c>
+      <c r="B135" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
+        <v>8767</v>
+      </c>
+      <c r="B136" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
+        <v>8766</v>
+      </c>
+      <c r="B137" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
+        <v>8765</v>
+      </c>
+      <c r="B138" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
+        <v>8764</v>
+      </c>
+      <c r="B139" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
+        <v>8763</v>
+      </c>
+      <c r="B140" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
+        <v>8762</v>
+      </c>
+      <c r="B141" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
+        <v>8761</v>
+      </c>
+      <c r="B142" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
+        <v>8760</v>
+      </c>
+      <c r="B143" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
+        <v>8759</v>
+      </c>
+      <c r="B144" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2">
+        <v>8758</v>
+      </c>
+      <c r="B145" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2">
+        <v>8757</v>
+      </c>
+      <c r="B146" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2">
+        <v>8756</v>
+      </c>
+      <c r="B147" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2">
+        <v>8755</v>
+      </c>
+      <c r="B148" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2">
+        <v>8754</v>
+      </c>
+      <c r="B149" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2">
+        <v>8753</v>
+      </c>
+      <c r="B150" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2">
+        <v>8752</v>
+      </c>
+      <c r="B151" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2">
+        <v>8751</v>
+      </c>
+      <c r="B152" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2">
+        <v>8750</v>
+      </c>
+      <c r="B153" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2">
+        <v>8749</v>
+      </c>
+      <c r="B154" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2">
+        <v>8748</v>
+      </c>
+      <c r="B155" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2">
+        <v>8747</v>
+      </c>
+      <c r="B156" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2">
+        <v>8746</v>
+      </c>
+      <c r="B157" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2">
+        <v>8745</v>
+      </c>
+      <c r="B158" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2">
+        <v>8744</v>
+      </c>
+      <c r="B159" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2">
+        <v>8743</v>
+      </c>
+      <c r="B160" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2">
+        <v>8742</v>
+      </c>
+      <c r="B161" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2">
+        <v>8741</v>
+      </c>
+      <c r="B162" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2">
+        <v>8740</v>
+      </c>
+      <c r="B163" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2">
+        <v>8739</v>
+      </c>
+      <c r="B164" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2">
+        <v>8738</v>
+      </c>
+      <c r="B165" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2">
+        <v>8737</v>
+      </c>
+      <c r="B166" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2">
+        <v>8736</v>
+      </c>
+      <c r="B167" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2">
+        <v>8735</v>
+      </c>
+      <c r="B168" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2">
+        <v>8734</v>
+      </c>
+      <c r="B169" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2">
+        <v>8733</v>
+      </c>
+      <c r="B170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2">
+        <v>8732</v>
+      </c>
+      <c r="B171" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2">
+        <v>8731</v>
+      </c>
+      <c r="B172" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2">
+        <v>8730</v>
+      </c>
+      <c r="B173" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2">
+        <v>8729</v>
+      </c>
+      <c r="B174" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2">
+        <v>8728</v>
+      </c>
+      <c r="B175" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2">
+        <v>8727</v>
+      </c>
+      <c r="B176" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="2">
+        <v>8726</v>
+      </c>
+      <c r="B177" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="2">
+        <v>8725</v>
+      </c>
+      <c r="B178" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="2">
+        <v>8724</v>
+      </c>
+      <c r="B179" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="2">
+        <v>8723</v>
+      </c>
+      <c r="B180" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="2">
+        <v>8722</v>
+      </c>
+      <c r="B181" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="2">
+        <v>8721</v>
+      </c>
+      <c r="B182" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="2">
+        <v>8720</v>
+      </c>
+      <c r="B183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="2">
+        <v>8719</v>
+      </c>
+      <c r="B184" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="2">
+        <v>8718</v>
+      </c>
+      <c r="B185" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="2">
+        <v>8717</v>
+      </c>
+      <c r="B186" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="2">
+        <v>8716</v>
+      </c>
+      <c r="B187" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="2">
+        <v>8715</v>
+      </c>
+      <c r="B188" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="2">
+        <v>8714</v>
+      </c>
+      <c r="B189" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="2">
+        <v>8713</v>
+      </c>
+      <c r="B190" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="2">
+        <v>8712</v>
+      </c>
+      <c r="B191" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="2">
+        <v>8711</v>
+      </c>
+      <c r="B192" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="2">
+        <v>8710</v>
+      </c>
+      <c r="B193" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2">
+        <v>8709</v>
+      </c>
+      <c r="B194" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2">
+        <v>8708</v>
+      </c>
+      <c r="B195" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2">
+        <v>8707</v>
+      </c>
+      <c r="B196" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2">
+        <v>8706</v>
+      </c>
+      <c r="B197" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2">
+        <v>8705</v>
+      </c>
+      <c r="B198" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2">
+        <v>8704</v>
+      </c>
+      <c r="B199" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2">
+        <v>8703</v>
+      </c>
+      <c r="B200" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2">
+        <v>8702</v>
+      </c>
+      <c r="B201" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2">
+        <v>8701</v>
+      </c>
+      <c r="B202" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2">
+        <v>8700</v>
+      </c>
+      <c r="B203" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2">
+        <v>8699</v>
+      </c>
+      <c r="B204" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2">
+        <v>8698</v>
+      </c>
+      <c r="B205" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2">
+        <v>8697</v>
+      </c>
+      <c r="B206" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2">
+        <v>8696</v>
+      </c>
+      <c r="B207" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2">
+        <v>8695</v>
+      </c>
+      <c r="B208" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2">
+        <v>8694</v>
+      </c>
+      <c r="B209" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2">
+        <v>8693</v>
+      </c>
+      <c r="B210" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2">
+        <v>8692</v>
+      </c>
+      <c r="B211" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2">
+        <v>8691</v>
+      </c>
+      <c r="B212" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2">
+        <v>8690</v>
+      </c>
+      <c r="B213" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2">
+        <v>8689</v>
+      </c>
+      <c r="B214" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2">
+        <v>8688</v>
+      </c>
+      <c r="B215" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2">
+        <v>8687</v>
+      </c>
+      <c r="B216" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2">
+        <v>8686</v>
+      </c>
+      <c r="B217" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2">
+        <v>8685</v>
+      </c>
+      <c r="B218" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2">
+        <v>8684</v>
+      </c>
+      <c r="B219" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2">
+        <v>8683</v>
+      </c>
+      <c r="B220" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2">
+        <v>8682</v>
+      </c>
+      <c r="B221" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2">
+        <v>8681</v>
+      </c>
+      <c r="B222" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2">
+        <v>8680</v>
+      </c>
+      <c r="B223" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2">
+        <v>8679</v>
+      </c>
+      <c r="B224" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2">
+        <v>8678</v>
+      </c>
+      <c r="B225" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2">
+        <v>8677</v>
+      </c>
+      <c r="B226" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2">
+        <v>8676</v>
+      </c>
+      <c r="B227" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2">
+        <v>8675</v>
+      </c>
+      <c r="B228" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2">
+        <v>8674</v>
+      </c>
+      <c r="B229" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2">
+        <v>8673</v>
+      </c>
+      <c r="B230" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2">
+        <v>8672</v>
+      </c>
+      <c r="B231" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2">
+        <v>8671</v>
+      </c>
+      <c r="B232" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2">
+        <v>8670</v>
+      </c>
+      <c r="B233" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2">
+        <v>8669</v>
+      </c>
+      <c r="B234" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2">
+        <v>8668</v>
+      </c>
+      <c r="B235" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2">
+        <v>8667</v>
+      </c>
+      <c r="B236" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2">
+        <v>8666</v>
+      </c>
+      <c r="B237" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2">
+        <v>8665</v>
+      </c>
+      <c r="B238" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2">
+        <v>8664</v>
+      </c>
+      <c r="B239" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2">
+        <v>8663</v>
+      </c>
+      <c r="B240" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2">
+        <v>8662</v>
+      </c>
+      <c r="B241" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2">
+        <v>8661</v>
+      </c>
+      <c r="B242" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2">
+        <v>8660</v>
+      </c>
+      <c r="B243" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2">
+        <v>8659</v>
+      </c>
+      <c r="B244" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2">
+        <v>8658</v>
+      </c>
+      <c r="B245" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2">
+        <v>8657</v>
+      </c>
+      <c r="B246" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2">
+        <v>8656</v>
+      </c>
+      <c r="B247" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2">
+        <v>8655</v>
+      </c>
+      <c r="B248" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2">
+        <v>8654</v>
+      </c>
+      <c r="B249" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2">
+        <v>8653</v>
+      </c>
+      <c r="B250" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2">
+        <v>8652</v>
+      </c>
+      <c r="B251" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2">
+        <v>8651</v>
+      </c>
+      <c r="B252" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2">
+        <v>8650</v>
+      </c>
+      <c r="B253" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2">
+        <v>8649</v>
+      </c>
+      <c r="B254" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2">
+        <v>8648</v>
+      </c>
+      <c r="B255" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2">
+        <v>8647</v>
+      </c>
+      <c r="B256" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2">
+        <v>8646</v>
+      </c>
+      <c r="B257" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2">
+        <v>8645</v>
+      </c>
+      <c r="B258" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2">
+        <v>8644</v>
+      </c>
+      <c r="B259" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2">
+        <v>8643</v>
+      </c>
+      <c r="B260" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2">
+        <v>8642</v>
+      </c>
+      <c r="B261" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2">
+        <v>8641</v>
+      </c>
+      <c r="B262" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2">
+        <v>8640</v>
+      </c>
+      <c r="B263" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2">
+        <v>8639</v>
+      </c>
+      <c r="B264" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2">
+        <v>8638</v>
+      </c>
+      <c r="B265" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2">
+        <v>8637</v>
+      </c>
+      <c r="B266" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2">
+        <v>8636</v>
+      </c>
+      <c r="B267" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2">
+        <v>8635</v>
+      </c>
+      <c r="B268" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2">
+        <v>8634</v>
+      </c>
+      <c r="B269" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2">
+        <v>8633</v>
+      </c>
+      <c r="B270" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2">
+        <v>8632</v>
+      </c>
+      <c r="B271" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2">
+        <v>8631</v>
+      </c>
+      <c r="B272" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2">
+        <v>8630</v>
+      </c>
+      <c r="B273" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2">
+        <v>8629</v>
+      </c>
+      <c r="B274" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2">
+        <v>8628</v>
+      </c>
+      <c r="B275" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2">
+        <v>8627</v>
+      </c>
+      <c r="B276" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2">
+        <v>8626</v>
+      </c>
+      <c r="B277" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2">
+        <v>8625</v>
+      </c>
+      <c r="B278" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2">
+        <v>8624</v>
+      </c>
+      <c r="B279" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2">
+        <v>8623</v>
+      </c>
+      <c r="B280" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2">
+        <v>8622</v>
+      </c>
+      <c r="B281" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2">
+        <v>8621</v>
+      </c>
+      <c r="B282" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2">
+        <v>8620</v>
+      </c>
+      <c r="B283" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2">
+        <v>8619</v>
+      </c>
+      <c r="B284" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2">
+        <v>8618</v>
+      </c>
+      <c r="B285" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2">
+        <v>8617</v>
+      </c>
+      <c r="B286" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2">
+        <v>8616</v>
+      </c>
+      <c r="B287" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2">
+        <v>8615</v>
+      </c>
+      <c r="B288" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2">
+        <v>8614</v>
+      </c>
+      <c r="B289" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="2">
+        <v>8613</v>
+      </c>
+      <c r="B290" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="2">
+        <v>8612</v>
+      </c>
+      <c r="B291" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="2">
+        <v>8611</v>
+      </c>
+      <c r="B292" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="2">
+        <v>8610</v>
+      </c>
+      <c r="B293" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="2">
+        <v>8609</v>
+      </c>
+      <c r="B294" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="2">
+        <v>8608</v>
+      </c>
+      <c r="B295" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="2">
+        <v>8607</v>
+      </c>
+      <c r="B296" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="2">
+        <v>8606</v>
+      </c>
+      <c r="B297" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="2">
+        <v>8605</v>
+      </c>
+      <c r="B298" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="2">
+        <v>8604</v>
+      </c>
+      <c r="B299" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="2">
+        <v>8603</v>
+      </c>
+      <c r="B300" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="2">
+        <v>8602</v>
+      </c>
+      <c r="B301" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="2">
+        <v>8601</v>
+      </c>
+      <c r="B302" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="2">
+        <v>8600</v>
+      </c>
+      <c r="B303" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="2">
+        <v>8599</v>
+      </c>
+      <c r="B304" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="2">
+        <v>8598</v>
+      </c>
+      <c r="B305" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="2">
+        <v>8597</v>
+      </c>
+      <c r="B306" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="2">
+        <v>8596</v>
+      </c>
+      <c r="B307" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="2">
+        <v>8595</v>
+      </c>
+      <c r="B308" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="2">
+        <v>8594</v>
+      </c>
+      <c r="B309" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="2">
+        <v>8593</v>
+      </c>
+      <c r="B310" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="2">
+        <v>8592</v>
+      </c>
+      <c r="B311" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="2">
+        <v>8591</v>
+      </c>
+      <c r="B312" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="2">
+        <v>8590</v>
+      </c>
+      <c r="B313" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="2">
+        <v>8589</v>
+      </c>
+      <c r="B314" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="2">
+        <v>8588</v>
+      </c>
+      <c r="B315" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="2">
+        <v>8587</v>
+      </c>
+      <c r="B316" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="2">
+        <v>8586</v>
+      </c>
+      <c r="B317" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="2">
+        <v>8585</v>
+      </c>
+      <c r="B318" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="2">
+        <v>8584</v>
+      </c>
+      <c r="B319" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="2">
+        <v>8583</v>
+      </c>
+      <c r="B320" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="2">
+        <v>8582</v>
+      </c>
+      <c r="B321" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="2">
+        <v>8581</v>
+      </c>
+      <c r="B322" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="2">
+        <v>8580</v>
+      </c>
+      <c r="B323" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="2">
+        <v>8579</v>
+      </c>
+      <c r="B324" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="2">
+        <v>8578</v>
+      </c>
+      <c r="B325" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="2">
+        <v>8577</v>
+      </c>
+      <c r="B326" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="2">
+        <v>8576</v>
+      </c>
+      <c r="B327" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="2">
+        <v>8575</v>
+      </c>
+      <c r="B328" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="2">
+        <v>8574</v>
+      </c>
+      <c r="B329" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="2">
+        <v>8573</v>
+      </c>
+      <c r="B330" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="2">
+        <v>8572</v>
+      </c>
+      <c r="B331" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="2">
+        <v>8571</v>
+      </c>
+      <c r="B332" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="2">
+        <v>8570</v>
+      </c>
+      <c r="B333" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="2">
+        <v>8569</v>
+      </c>
+      <c r="B334" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="2">
+        <v>8568</v>
+      </c>
+      <c r="B335" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="2">
+        <v>8567</v>
+      </c>
+      <c r="B336" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="2">
+        <v>8566</v>
+      </c>
+      <c r="B337" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="2">
+        <v>8565</v>
+      </c>
+      <c r="B338" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="2">
+        <v>8564</v>
+      </c>
+      <c r="B339" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="2">
+        <v>8563</v>
+      </c>
+      <c r="B340" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="2">
+        <v>8562</v>
+      </c>
+      <c r="B341" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="2">
+        <v>8561</v>
+      </c>
+      <c r="B342" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="2">
+        <v>8560</v>
+      </c>
+      <c r="B343" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="2">
+        <v>8559</v>
+      </c>
+      <c r="B344" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="2">
+        <v>8558</v>
+      </c>
+      <c r="B345" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="2">
+        <v>8557</v>
+      </c>
+      <c r="B346" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="2">
+        <v>8556</v>
+      </c>
+      <c r="B347" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="2">
+        <v>8555</v>
+      </c>
+      <c r="B348" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="2">
+        <v>8554</v>
+      </c>
+      <c r="B349" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="2">
+        <v>8553</v>
+      </c>
+      <c r="B350" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="2">
+        <v>8552</v>
+      </c>
+      <c r="B351" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="2">
+        <v>8551</v>
+      </c>
+      <c r="B352" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="2">
+        <v>8550</v>
+      </c>
+      <c r="B353" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="2">
+        <v>8549</v>
+      </c>
+      <c r="B354" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="2">
+        <v>8548</v>
+      </c>
+      <c r="B355" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="2">
+        <v>8547</v>
+      </c>
+      <c r="B356" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="2">
+        <v>8546</v>
+      </c>
+      <c r="B357" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="2">
+        <v>8545</v>
+      </c>
+      <c r="B358" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
